--- a/extracted_data.xlsx
+++ b/extracted_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Development\Barcode_Reader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08ABD12-2973-4776-AD81-61E6B3CBB721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F30503B-B01D-4A81-90C8-6C30AD2BF554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Barcode Data</t>
   </si>
@@ -34,23 +34,137 @@
     <t>9855664433227</t>
   </si>
   <si>
-    <t xml:space="preserve">—s ’
-</t>
-  </si>
-  <si>
-    <t>2024-11-19 22:16:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NW uo.
-thes gla)
-PTT et | ennai com
-</t>
-  </si>
-  <si>
-    <t>2024-11-19 22:16:21</t>
-  </si>
-  <si>
-    <t>2024-11-19 22:16:24</t>
+    <t xml:space="preserve">Your all joyful moments,
+on yours notebook
+</t>
+  </si>
+  <si>
+    <t>2024-11-19_23-55-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your all joyful moments,
+on yours notebook
+PUSH YOURSELF BEACUSE NO ONE ELSE IS GOING TO DO IT FOR YOU.
+“DIRECTION MAKES GOAL”
+</t>
+  </si>
+  <si>
+    <t>2024-11-19_23-55-34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pages:
+it
+—
+et
+a
+~ Your all joyful moments,
+on yours notebook
+PUSH YOURSELF BEACUSE NO ONE ELSE IS GOING TO DO IT FOR YOU.
+“DIRECTION MAKES GOAL”
+ST
+ef meee (1.00!) 1201/160/|240!
+</t>
+  </si>
+  <si>
+    <t>2024-11-19_23-55-37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nd
+Your alll joyful moments,
+on yours notebook
+BEACUSE NO ONE ELSE IS GOING TO DO IT FOR YOU.
+PUSH YOURSELF
+“DIRECTION MAKES GOAL”
+aS — la
+120)|160]/240
+mm kinto Raok
+</t>
+  </si>
+  <si>
+    <t>2024-11-19_23-55-39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your all joyful moments,
+on yours notebook
+PUSH YOURSELF BEACUSE NO ONE ELSE 1S GOING TO DO IT FOR YOU.
+“DIRECTION MAKES GOAL”
+of rk Mes PO
+Ce ay [100)|120][160) 20 (iowa
+fan/-i§5/-1(75/-|
+</t>
+  </si>
+  <si>
+    <t>2024-11-19_23-55-42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your all joyful moments,
+on yours notebook
+_
+PUSH YOURSELF BEACUSE NO ONE ELSE IS GOING TO DO IT FOR YOU.
+“DIRECTION MAKES GOAL”
+(at
+D.C.Note Book
+its
+</t>
+  </si>
+  <si>
+    <t>2024-11-19_23-55-44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your all joyful moments,
+On yours notebook
+es
+PUSH YOURSELF BEACUSE NO ONE ELSE IS GOING TO DO IT FOR YOU.
+“DIRECTION MAKES GOAL”
+&amp; = initia
+SREEHARI 0): aa
+D.C.Note Book
+</t>
+  </si>
+  <si>
+    <t>2024-11-19_23-55-46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your all joyful moments,
+On yours notebook
+PUSH YOURSELF BEACUSE NO ONE ELSE IS GOING TO Do IT FOR YOU.
+“DIRECTION MAKES GOAL”
+&amp; ee oe (Wai
+SREEHARI aGr 57]
+D.C.Note Book
+</t>
+  </si>
+  <si>
+    <t>2024-11-19_23-55-48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your alll joyful moments,
+On yours notebook
+—_—_—
+PUSH YOURSELF BEACUSE NO ONE ELSE IS GOING TO DO IT FOR YOU.
+“DIRECTION MAKES GOAL”
+a a
+© Pages _| eT
+SREEHARI eee
+</t>
+  </si>
+  <si>
+    <t>2024-11-19_23-55-51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St
+Your all joyful moments,
+On yours notebook
+ee
+PUSH YOURSELF BEACUSE NO ONE ELSE IS GOING TO DO IT FOR You.
+“DIRECTION MAKES GOAL”
+Pages DAME
+BS REEHARI 407;
+D.C.Note Book
+</t>
+  </si>
+  <si>
+    <t>2024-11-19_23-55-53</t>
   </si>
 </sst>
 </file>
@@ -413,16 +527,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.21875" customWidth="1"/>
-    <col min="2" max="2" width="58.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="175.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -462,8 +574,88 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/extracted_data.xlsx
+++ b/extracted_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,169 +453,148 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0051000012517</t>
+          <t>9855664433227</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-11-21_02-50-37</t>
+          <t>2024-12-02_19-52-40</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0051000012517</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0 wh 01251" 7 j
-</t>
-        </is>
-      </c>
+          <t>9855664433227</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-11-21_02-50-39</t>
+          <t>2024-12-02_19-52-41</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0051000012517</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0
-5100001251 7
-</t>
-        </is>
-      </c>
+          <t>9855664433227</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-11-21_02-50-40</t>
+          <t>2024-12-02_19-52-43</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0051000012517</t>
+          <t>9855664433227</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">0°°51000°01251 "7;
+          <t xml:space="preserve">. ten * =
+oa aa ae dd ht ge MWR oP a
 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-11-21_02-50-41</t>
+          <t>2024-12-02_19-52-45</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0051000012517</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>9855664433227</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sea Yee
+</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-11-21_02-50-44</t>
+          <t>2024-12-02_19-52-47</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0051000012517</t>
+          <t>9855664433227</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-11-21_02-50-45</t>
+          <t>2024-12-02_19-52-49</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0051000012517</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">| (Ac
-</t>
-        </is>
-      </c>
+          <t>9855664433227</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-11-21_02-50-47</t>
+          <t>2024-12-02_19-52-51</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0051000012517</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
+          <t>9855664433227</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">; wy MiB
+— 2 he
+on
+</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-11-21_02-50-48</t>
+          <t>2024-12-02_19-52-53</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0051000012517</t>
+          <t>9855664433227</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-11-21_02-50-49</t>
+          <t>2024-12-02_19-52-55</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0051000012517</t>
+          <t>9855664433227</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-11-21_02-50-50</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>0051000012517</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">' 0" 51000'01251
-</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2024-11-21_02-50-51</t>
+          <t>2024-12-02_19-52-57</t>
         </is>
       </c>
     </row>
